--- a/用例数据/沪A/公司债/固定收益平台实施非担保交收的债券交易/T日/测试结果.xlsx
+++ b/用例数据/沪A/公司债/固定收益平台实施非担保交收的债券交易/T日/测试结果.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\source\用例数据\沪A\公司债\固定收益平台实施非担保交收的债券交易\T日\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC837A65-C749-413C-A019-01408C893735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3E27FF-83BC-4483-AA56-C8511103138C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="unprocessedreckoningresult" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="231">
   <si>
     <t>ACCTID</t>
   </si>
@@ -386,12 +386,6 @@
     <t>005_002_001</t>
   </si>
   <si>
-    <t>A117212001</t>
-  </si>
-  <si>
-    <t>焦振鹏虚拟股东</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -416,9 +410,6 @@
     <t>5000000.000</t>
   </si>
   <si>
-    <t>20230403000000</t>
-  </si>
-  <si>
     <t>99990</t>
   </si>
   <si>
@@ -458,12 +449,6 @@
     <t>5</t>
   </si>
   <si>
-    <t>000007160108</t>
-  </si>
-  <si>
-    <t>20230404000000</t>
-  </si>
-  <si>
     <t>1.0000000000</t>
   </si>
   <si>
@@ -479,21 +464,9 @@
     <t>5097218.230</t>
   </si>
   <si>
-    <t>000007160109</t>
-  </si>
-  <si>
-    <t>000011721201</t>
-  </si>
-  <si>
     <t>165186</t>
   </si>
   <si>
-    <t>000007160121</t>
-  </si>
-  <si>
-    <t>000007160122</t>
-  </si>
-  <si>
     <t>GETACCOUNTNUM</t>
   </si>
   <si>
@@ -729,6 +702,24 @@
   </si>
   <si>
     <t>1.000000</t>
+  </si>
+  <si>
+    <t>20230508000000</t>
+  </si>
+  <si>
+    <t>000007315111</t>
+  </si>
+  <si>
+    <t>20230509000000</t>
+  </si>
+  <si>
+    <t>000007315112</t>
+  </si>
+  <si>
+    <t>000007315113</t>
+  </si>
+  <si>
+    <t>000007315114</t>
   </si>
 </sst>
 </file>
@@ -1057,7 +1048,7 @@
   <dimension ref="A1:DB31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1384,13 +1375,13 @@
     </row>
     <row r="2" spans="1:106" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>106</v>
@@ -1402,25 +1393,25 @@
         <v>106</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>129</v>
+        <v>225</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>108</v>
@@ -1438,139 +1429,139 @@
         <v>112</v>
       </c>
       <c r="S2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="W2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA2" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD2" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AB2" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL2" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="AM2" s="1" t="s">
         <v>113</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AO2" s="1" t="s">
         <v>114</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="BE2" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BI2" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="BJ2" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="BO2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>143</v>
+        <v>226</v>
       </c>
       <c r="BR2" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BS2" s="1" t="s">
-        <v>144</v>
+        <v>227</v>
       </c>
       <c r="BT2" s="1" t="s">
         <v>108</v>
@@ -1579,90 +1570,90 @@
         <v>116</v>
       </c>
       <c r="BW2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BZ2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="CB2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CE2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="CF2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="CG2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="CH2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="CI2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="CA2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="CB2" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="CE2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="CF2" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="CG2" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="CH2" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="CI2" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="CJ2" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CK2" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CL2" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CM2" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CN2" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CO2" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CP2" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CQ2" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CR2" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CS2" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CT2" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CX2" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="CY2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="CZ2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="DA2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="DB2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:106" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>106</v>
@@ -1674,25 +1665,25 @@
         <v>106</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="L3" s="1" t="s">
-        <v>129</v>
+        <v>225</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>117</v>
@@ -1710,139 +1701,139 @@
         <v>112</v>
       </c>
       <c r="S3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="W3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA3" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="U3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="V3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF3" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="AG3" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="X3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AH3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AB3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="AK3" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AM3" s="1" t="s">
         <v>118</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AO3" s="1" t="s">
         <v>114</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AY3" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="BA3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BB3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="BD3" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="BE3" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="BF3" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="BH3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BI3" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="BJ3" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="BO3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>150</v>
+        <v>228</v>
       </c>
       <c r="BR3" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BS3" s="1" t="s">
-        <v>144</v>
+        <v>227</v>
       </c>
       <c r="BT3" s="1" t="s">
         <v>117</v>
@@ -1851,120 +1842,120 @@
         <v>116</v>
       </c>
       <c r="BW3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BZ3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CA3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="CB3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CE3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="CF3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="CG3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="CH3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="CI3" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="CA3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="CB3" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="CE3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="CF3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="CG3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="CH3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="CI3" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="CJ3" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CK3" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CL3" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CM3" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CN3" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CO3" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CP3" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CQ3" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CR3" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CS3" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CT3" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CX3" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="CY3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="CZ3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="DA3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="DB3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:106" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>106</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="L4" s="1" t="s">
-        <v>129</v>
+        <v>225</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>108</v>
@@ -1982,139 +1973,139 @@
         <v>112</v>
       </c>
       <c r="S4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="W4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA4" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="AB4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD4" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="AE4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF4" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="AG4" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="X4" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AH4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AB4" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD4" s="1" t="s">
+      <c r="AK4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL4" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="AE4" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="AM4" s="1" t="s">
         <v>113</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AO4" s="1" t="s">
         <v>114</v>
       </c>
       <c r="AQ4" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AS4" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AU4" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AW4" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AX4" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AY4" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="BA4" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BB4" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BC4" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="BD4" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="BE4" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="BF4" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="BG4" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="BH4" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BI4" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="BJ4" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="BO4" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BP4" s="1" t="s">
-        <v>153</v>
+        <v>229</v>
       </c>
       <c r="BR4" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BS4" s="1" t="s">
-        <v>144</v>
+        <v>227</v>
       </c>
       <c r="BT4" s="1" t="s">
         <v>108</v>
@@ -2123,120 +2114,120 @@
         <v>116</v>
       </c>
       <c r="BW4" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BZ4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CA4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="CB4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CE4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="CF4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="CG4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="CH4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="CI4" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="CA4" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="CB4" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="CE4" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="CF4" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="CG4" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="CH4" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="CI4" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="CJ4" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CK4" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CL4" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CM4" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CN4" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CO4" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CP4" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CQ4" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CR4" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CS4" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CT4" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CX4" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="CY4" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="CZ4" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="DA4" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="DB4" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:106" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>106</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="L5" s="1" t="s">
-        <v>129</v>
+        <v>225</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>117</v>
@@ -2254,139 +2245,139 @@
         <v>112</v>
       </c>
       <c r="S5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="V5" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="W5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA5" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="U5" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="V5" s="1" t="s">
+      <c r="AB5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF5" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="AG5" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="X5" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AH5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AB5" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="AK5" s="1" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AM5" s="1" t="s">
         <v>118</v>
       </c>
       <c r="AN5" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="AO5" s="1" t="s">
         <v>114</v>
       </c>
       <c r="AQ5" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AS5" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AU5" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AV5" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AW5" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AX5" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AY5" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="BA5" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BB5" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BC5" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="BD5" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="BE5" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="BF5" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="BG5" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="BH5" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BI5" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="BJ5" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="BO5" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BP5" s="1" t="s">
-        <v>154</v>
+        <v>230</v>
       </c>
       <c r="BR5" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BS5" s="1" t="s">
-        <v>144</v>
+        <v>227</v>
       </c>
       <c r="BT5" s="1" t="s">
         <v>117</v>
@@ -2395,79 +2386,79 @@
         <v>116</v>
       </c>
       <c r="BW5" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BZ5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CA5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="CB5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CE5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="CF5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="CG5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="CH5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="CI5" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="CA5" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="CB5" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="CE5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="CF5" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="CG5" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="CH5" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="CI5" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="CJ5" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CK5" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CL5" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CM5" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CN5" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CO5" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CP5" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CQ5" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CR5" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CS5" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CT5" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CX5" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="CY5" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="CZ5" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="DA5" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="DB5" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:106" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2507,11 +2498,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51530E12-1BD3-41DC-9E18-5F963FE34299}">
   <dimension ref="A1:DE10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:109" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -2629,16 +2623,16 @@
         <v>37</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="AO1" s="1" t="s">
         <v>38</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="AQ1" s="1" t="s">
         <v>39</v>
@@ -2844,13 +2838,13 @@
     </row>
     <row r="2" spans="1:109" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>106</v>
@@ -2862,25 +2856,25 @@
         <v>106</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>129</v>
+        <v>225</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>108</v>
@@ -2898,145 +2892,145 @@
         <v>112</v>
       </c>
       <c r="S2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="W2" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA2" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD2" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AB2" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AK2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL2" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="AE2" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="AM2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AO2" s="1" t="s">
         <v>113</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AQ2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BI2" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="AT2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="BJ2" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="BK2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BL2" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="BM2" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="BR2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BS2" s="1" t="s">
-        <v>143</v>
+        <v>226</v>
       </c>
       <c r="BU2" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BV2" s="1" t="s">
-        <v>144</v>
+        <v>227</v>
       </c>
       <c r="BW2" s="1" t="s">
         <v>108</v>
@@ -3045,90 +3039,90 @@
         <v>116</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="CC2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="CE2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CH2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="CI2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="CJ2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="CK2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="CL2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="CD2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="CE2" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="CH2" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="CI2" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="CJ2" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="CK2" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="CL2" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="CM2" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CN2" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CO2" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CP2" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CQ2" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CR2" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CS2" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CT2" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CU2" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CV2" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CW2" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="DA2" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="DB2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="DC2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="DD2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="DE2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:109" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>106</v>
@@ -3140,25 +3134,25 @@
         <v>106</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="L3" s="1" t="s">
-        <v>129</v>
+        <v>225</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>117</v>
@@ -3176,145 +3170,145 @@
         <v>112</v>
       </c>
       <c r="S3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="W3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA3" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="U3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="V3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF3" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="W3" s="1" t="s">
+      <c r="AG3" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="X3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA3" s="1" t="s">
+      <c r="AH3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AB3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="AK3" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AO3" s="1" t="s">
         <v>118</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AQ3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AW3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AX3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AZ3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="BA3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BB3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BD3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="BF3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BG3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BH3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BI3" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="AT3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AW3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="BD3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BE3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BF3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BH3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BI3" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="BJ3" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="BK3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="BM3" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="BR3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BS3" s="1" t="s">
-        <v>150</v>
+        <v>228</v>
       </c>
       <c r="BU3" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BV3" s="1" t="s">
-        <v>144</v>
+        <v>227</v>
       </c>
       <c r="BW3" s="1" t="s">
         <v>117</v>
@@ -3323,120 +3317,120 @@
         <v>116</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="CC3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CD3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="CE3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CH3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="CI3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="CJ3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="CK3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="CL3" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="CD3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="CE3" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="CH3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="CI3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="CJ3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="CK3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="CL3" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="CM3" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CN3" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CO3" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CP3" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CQ3" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CR3" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CS3" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CT3" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CU3" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CV3" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CW3" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="DA3" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="DB3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="DC3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="DD3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="DE3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:109" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>106</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="L4" s="1" t="s">
-        <v>129</v>
+        <v>225</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>108</v>
@@ -3454,145 +3448,145 @@
         <v>112</v>
       </c>
       <c r="S4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="W4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA4" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="AB4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD4" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="AE4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF4" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="AG4" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="X4" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AH4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AB4" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD4" s="1" t="s">
+      <c r="AK4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL4" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="AE4" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AF4" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI4" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AK4" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AL4" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="AM4" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AN4" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AO4" s="1" t="s">
         <v>113</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AQ4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AV4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AW4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AX4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AZ4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="BA4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BB4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BD4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="BF4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BG4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BH4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BI4" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="AT4" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AV4" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AW4" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AX4" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AY4" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AZ4" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BA4" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BB4" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="BD4" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BE4" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BF4" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BG4" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BH4" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BI4" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="BJ4" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="BK4" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="BM4" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="BR4" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BS4" s="1" t="s">
-        <v>153</v>
+        <v>229</v>
       </c>
       <c r="BU4" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BV4" s="1" t="s">
-        <v>144</v>
+        <v>227</v>
       </c>
       <c r="BW4" s="1" t="s">
         <v>108</v>
@@ -3601,120 +3595,120 @@
         <v>116</v>
       </c>
       <c r="BZ4" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="CC4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CD4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="CE4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CH4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="CI4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="CJ4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="CK4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="CL4" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="CD4" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="CE4" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="CH4" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="CI4" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="CJ4" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="CK4" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="CL4" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="CM4" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CN4" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CO4" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CP4" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CQ4" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CR4" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CS4" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CT4" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CU4" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CV4" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CW4" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="DA4" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="DB4" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="DC4" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="DD4" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="DE4" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:109" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>106</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="L5" s="1" t="s">
-        <v>129</v>
+        <v>225</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>117</v>
@@ -3732,145 +3726,145 @@
         <v>112</v>
       </c>
       <c r="S5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="V5" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="W5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA5" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="U5" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="V5" s="1" t="s">
+      <c r="AB5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF5" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="AG5" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="X5" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA5" s="1" t="s">
+      <c r="AH5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AB5" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AE5" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AF5" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AH5" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AI5" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AJ5" s="1" t="s">
-        <v>137</v>
-      </c>
       <c r="AK5" s="1" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="AL5" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AM5" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AN5" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AO5" s="1" t="s">
         <v>118</v>
       </c>
       <c r="AP5" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AQ5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AV5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AW5" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AX5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AY5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AZ5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="BA5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BB5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BD5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="BE5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="BF5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BG5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BH5" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BI5" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="AT5" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AV5" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AW5" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AX5" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AY5" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AZ5" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BA5" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BB5" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="BD5" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BE5" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BF5" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BG5" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BH5" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="BI5" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="BJ5" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="BK5" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BL5" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="BM5" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="BR5" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BS5" s="1" t="s">
-        <v>154</v>
+        <v>230</v>
       </c>
       <c r="BU5" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BV5" s="1" t="s">
-        <v>144</v>
+        <v>227</v>
       </c>
       <c r="BW5" s="1" t="s">
         <v>117</v>
@@ -3879,79 +3873,79 @@
         <v>116</v>
       </c>
       <c r="BZ5" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="CC5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CD5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="CE5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="CH5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="CI5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="CJ5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="CK5" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="CL5" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="CD5" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="CE5" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="CH5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="CI5" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="CJ5" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="CK5" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="CL5" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="CM5" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CN5" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CO5" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CP5" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CQ5" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CR5" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CS5" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CT5" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CU5" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CV5" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="CW5" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="DA5" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="DB5" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="DC5" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="DD5" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="DE5" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:109" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -3969,8 +3963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87396AD-0CAA-4604-AEB0-D58ADBD0199D}">
   <dimension ref="A1:CH16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4001,43 +3995,43 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>35</v>
@@ -4052,198 +4046,198 @@
         <v>16</v>
       </c>
       <c r="Z1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AI1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="BR1" s="1" t="s">
         <v>82</v>
       </c>
       <c r="BS1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="CB1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>106</v>
@@ -4255,52 +4249,52 @@
         <v>106</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>110</v>
@@ -4312,255 +4306,255 @@
         <v>111</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AY2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BA2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BB2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BE2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="BI2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BJ2" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="BK2" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="BL2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BM2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BO2" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="BQ2" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="BR2" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="BS2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BT2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BU2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BV2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BW2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BX2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BY2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="CA2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="CB2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="CC2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="CD2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="CE2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="CF2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="CG2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>106</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>110</v>
@@ -4572,187 +4566,187 @@
         <v>111</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AV3" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AW3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AY3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BA3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BB3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BC3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BD3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BE3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BF3" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="BG3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BH3" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="BI3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BJ3" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="BK3" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BM3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BN3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BO3" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="BP3" s="1" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="BQ3" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="BR3" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="BS3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BT3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BU3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BV3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BW3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BX3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BY3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BZ3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="CA3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="CB3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="CC3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="CD3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="CE3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="CF3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="CG3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="CH3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
